--- a/3mL Micropipette Displacement vs Dispensed amount.xlsx
+++ b/3mL Micropipette Displacement vs Dispensed amount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Displaced Amount (mm)</t>
   </si>
   <si>
     <t xml:space="preserve"> Dispensed Liquid (mL)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Not Adjustable</t>
+  </si>
+  <si>
+    <t>Adjustable</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -286,11 +298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="620891920"/>
-        <c:axId val="620895184"/>
+        <c:axId val="-169087152"/>
+        <c:axId val="-169095856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="620891920"/>
+        <c:axId val="-169087152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,12 +420,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620895184"/>
+        <c:crossAx val="-169095856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620895184"/>
+        <c:axId val="-169095856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620891920"/>
+        <c:crossAx val="-169087152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,132 +1446,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" ref="B2:B13" si="0">((A:A)*(1.72)*10)</f>
         <v>1.7200000000000002</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>3.4400000000000004</v>
       </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>5.16</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>6.8800000000000008</v>
       </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>10.32</v>
       </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>12.04</v>
       </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>13.760000000000002</v>
       </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>15.48</v>
       </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>17.2</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>18.920000000000002</v>
       </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
-        <f>((A:A)*(1.72)*10)</f>
+        <f t="shared" si="0"/>
         <v>20.64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/3mL Micropipette Displacement vs Dispensed amount.xlsx
+++ b/3mL Micropipette Displacement vs Dispensed amount.xlsx
@@ -298,11 +298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-169087152"/>
-        <c:axId val="-169095856"/>
+        <c:axId val="1746096640"/>
+        <c:axId val="1746102624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-169087152"/>
+        <c:axId val="1746096640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,12 +420,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-169095856"/>
+        <c:crossAx val="1746102624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-169095856"/>
+        <c:axId val="1746102624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-169087152"/>
+        <c:crossAx val="1746096640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1154,14 +1154,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
